--- a/Resultado/estado_gestion_Paquete_1_cali.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_cali.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17275</v>
+        <v>22967</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -473,12 +473,12 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45936</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37581</v>
+        <v>52731</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -489,12 +489,12 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>59180</v>
+        <v>53867</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -505,12 +505,12 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>63819</v>
+        <v>59390</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -521,12 +521,12 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>66593</v>
+        <v>60683</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -537,12 +537,12 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45898</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>66775</v>
+        <v>66449</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -553,12 +553,12 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45908</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68079</v>
+        <v>68005</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>71398</v>
+        <v>68934</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -585,12 +585,12 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45919</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>72975</v>
+        <v>71642</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -601,12 +601,12 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45932</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74288</v>
+        <v>71767</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -617,12 +617,12 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45896</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>74290</v>
+        <v>74291</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -633,12 +633,12 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>75324</v>
+        <v>75325</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -649,12 +649,12 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45959</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>76226</v>
+        <v>76227</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -665,12 +665,12 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45905</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>76228</v>
+        <v>79178</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -681,12 +681,12 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45960</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>76301</v>
+        <v>79360</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -697,12 +697,12 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45939</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>77339</v>
+        <v>79362</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -713,12 +713,12 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45898</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>78450</v>
+        <v>80248</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -729,12 +729,12 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45898</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>78452</v>
+        <v>80439</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -745,12 +745,12 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45943</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>78509</v>
+        <v>80441</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>78602</v>
+        <v>26841</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -777,12 +777,12 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45938</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>79177</v>
+        <v>30980</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -793,12 +793,12 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45910</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>79361</v>
+        <v>40088</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -809,12 +809,12 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45946</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>79363</v>
+        <v>56148</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -825,12 +825,12 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45930</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>80440</v>
+        <v>59874</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -841,12 +841,12 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45951</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>40448</v>
+        <v>62123</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -857,12 +857,12 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45909</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>57310</v>
+        <v>64327</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -873,12 +873,12 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45910</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>62122</v>
+        <v>67146</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -889,12 +889,12 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45905</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>68299</v>
+        <v>68407</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -905,12 +905,12 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45945</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>69619</v>
+        <v>68305</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -921,12 +921,12 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45926</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>70687</v>
+        <v>70681</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -937,12 +937,12 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45898</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>75494</v>
+        <v>71847</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -953,12 +953,12 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45929</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>76578</v>
+        <v>71849</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -969,12 +969,12 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>76714</v>
+        <v>71956</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -985,12 +985,12 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45929</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>78175</v>
+        <v>78417</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1001,12 +1001,12 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45960</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>79545</v>
+        <v>78449</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -1017,12 +1017,12 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45895</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>79547</v>
+        <v>78508</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1033,12 +1033,12 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45898</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>80588</v>
+        <v>78510</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -1049,12 +1049,12 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45898</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>80724</v>
+        <v>78601</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -1065,12 +1065,12 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45894</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>24145</v>
+        <v>79546</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -1081,12 +1081,12 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>29984</v>
+        <v>14541</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -1097,12 +1097,12 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45950</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>46957</v>
+        <v>12998</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -1113,12 +1113,12 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45954</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>53509</v>
+        <v>17708</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -1129,12 +1129,12 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45925</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>53689</v>
+        <v>19498</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -1145,12 +1145,12 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45930</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>56867</v>
+        <v>22045</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -1161,12 +1161,12 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45909</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>60734</v>
+        <v>36119</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -1177,12 +1177,12 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45904</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>60959</v>
+        <v>51961</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -1193,12 +1193,12 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45945</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>69744</v>
+        <v>61896</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -1209,12 +1209,12 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45946</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>79988</v>
+        <v>64018</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -1225,12 +1225,12 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45916</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>80122</v>
+        <v>66594</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -1241,12 +1241,12 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45910</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10073</v>
+        <v>66669</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -1257,12 +1257,12 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45947</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>31422</v>
+        <v>68298</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -1273,12 +1273,12 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45920</v>
+        <v>45943</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>33651</v>
+        <v>71390</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -1289,12 +1289,12 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45918</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>33653</v>
+        <v>72517</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -1305,12 +1305,12 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45896</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>40171</v>
+        <v>72728</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1321,12 +1321,12 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45902</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>48859</v>
+        <v>73964</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -1337,12 +1337,12 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45929</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>53225</v>
+        <v>74005</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -1353,12 +1353,12 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45899</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56147</v>
+        <v>75200</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -1369,12 +1369,12 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45952</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>60132</v>
+        <v>76059</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -1385,12 +1385,12 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45939</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>66450</v>
+        <v>76186</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -1401,12 +1401,12 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45958</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>70355</v>
+        <v>77129</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -1417,12 +1417,12 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45912</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>72516</v>
+        <v>77006</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -1433,12 +1433,12 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>72641</v>
+        <v>78176</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -1449,12 +1449,12 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45903</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>73838</v>
+        <v>79051</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -1465,12 +1465,12 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>74924</v>
+        <v>79987</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -1481,12 +1481,12 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45898</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>75935</v>
+        <v>79989</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -1497,12 +1497,12 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45896</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>76185</v>
+        <v>80123</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -1513,12 +1513,12 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45899</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>77005</v>
+        <v>18571</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -1529,12 +1529,12 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45946</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>79050</v>
+        <v>25730</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -1545,12 +1545,12 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45911</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>79752</v>
+        <v>37991</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -1561,12 +1561,12 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>79754</v>
+        <v>38080</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1577,12 +1577,12 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>14541</v>
+        <v>46965</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -1593,12 +1593,12 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45960</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>12998</v>
+        <v>50205</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -1609,12 +1609,12 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45894</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>52731</v>
+        <v>66101</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1625,12 +1625,12 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45919</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>53867</v>
+        <v>72110</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>61896</v>
+        <v>72319</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -1657,12 +1657,12 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45909</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>64018</v>
+        <v>73544</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -1673,12 +1673,12 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>66594</v>
+        <v>73730</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -1689,12 +1689,12 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45923</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>66669</v>
+        <v>73737</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -1705,12 +1705,12 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45940</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>68298</v>
+        <v>74925</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -1721,12 +1721,12 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45943</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>71642</v>
+        <v>75109</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>71767</v>
+        <v>76886</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -1753,12 +1753,12 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45909</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>74291</v>
+        <v>79755</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -1769,12 +1769,12 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45908</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>75325</v>
+        <v>66164</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -1785,12 +1785,12 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45896</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>76227</v>
+        <v>71411</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -1801,12 +1801,12 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45925</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>78417</v>
+        <v>75323</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -1817,12 +1817,12 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45950</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>78449</v>
+        <v>76340</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -1833,12 +1833,12 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45957</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>78508</v>
+        <v>76341</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -1849,12 +1849,12 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>78510</v>
+        <v>79181</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -1865,12 +1865,12 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45938</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>78601</v>
+        <v>14287</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -1881,12 +1881,12 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45903</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>79178</v>
+        <v>15925</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -1897,12 +1897,12 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45952</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>79360</v>
+        <v>29995</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -1913,12 +1913,12 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>79362</v>
+        <v>30981</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -1929,12 +1929,12 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45904</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>80248</v>
+        <v>36681</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>80439</v>
+        <v>47763</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -1961,12 +1961,12 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45899</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>80441</v>
+        <v>50037</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -1977,12 +1977,12 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45897</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>18571</v>
+        <v>57406</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -1993,12 +1993,12 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45919</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>37991</v>
+        <v>68300</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -2009,12 +2009,12 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>38080</v>
+        <v>68303</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -2025,12 +2025,12 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45898</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>51961</v>
+        <v>69623</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -2041,12 +2041,12 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45938</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>59874</v>
+        <v>70857</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -2057,12 +2057,12 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45910</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>62123</v>
+        <v>73384</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -2073,12 +2073,12 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45917</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>64327</v>
+        <v>74803</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -2089,12 +2089,12 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45961</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>67146</v>
+        <v>74804</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -2105,12 +2105,12 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45961</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>68407</v>
+        <v>75674</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -2121,12 +2121,12 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45911</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>68305</v>
+        <v>76440</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -2137,12 +2137,12 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45899</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>70681</v>
+        <v>78511</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -2153,12 +2153,12 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45944</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>71847</v>
+        <v>79618</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -2169,12 +2169,12 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45894</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>71849</v>
+        <v>80586</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
@@ -2185,12 +2185,12 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45895</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>71956</v>
+        <v>12282</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>78176</v>
+        <v>10777</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -2217,12 +2217,12 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45895</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>79546</v>
+        <v>10575</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -2233,12 +2233,12 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45905</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>22045</v>
+        <v>11043</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>25730</v>
+        <v>21773</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -2265,12 +2265,12 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45903</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>26841</v>
+        <v>36013</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
@@ -2281,12 +2281,12 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>30980</v>
+        <v>36014</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -2297,12 +2297,12 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45898</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>36119</v>
+        <v>70323</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
@@ -2313,12 +2313,12 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45967</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>46965</v>
+        <v>70326</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -2329,12 +2329,12 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>50205</v>
+        <v>71394</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
@@ -2345,12 +2345,12 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45922</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>59390</v>
+        <v>71395</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -2361,12 +2361,12 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45904</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>60683</v>
+        <v>72515</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -2377,12 +2377,12 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45965</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>66101</v>
+        <v>73967</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -2393,12 +2393,12 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45903</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>72110</v>
+        <v>77009</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
@@ -2409,12 +2409,12 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45902</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>72319</v>
+        <v>77007</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
@@ -2425,12 +2425,12 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45903</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>73544</v>
+        <v>78177</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
@@ -2441,12 +2441,12 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45904</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>73730</v>
+        <v>79047</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -2457,12 +2457,12 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45911</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>73737</v>
+        <v>79048</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -2473,12 +2473,12 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45912</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>75200</v>
+        <v>23480</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -2489,12 +2489,12 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45904</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>76886</v>
+        <v>33040</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
@@ -2505,12 +2505,12 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45894</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>79987</v>
+        <v>36898</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
@@ -2521,12 +2521,12 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45947</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>79989</v>
+        <v>39173</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
@@ -2537,12 +2537,12 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45912</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>80123</v>
+        <v>39423</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -2553,12 +2553,12 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45923</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>17708</v>
+        <v>46893</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
@@ -2569,12 +2569,12 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45936</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>19498</v>
+        <v>46961</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -2585,12 +2585,12 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45908</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>22967</v>
+        <v>49116</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
@@ -2601,12 +2601,12 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45966</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>40088</v>
+        <v>49117</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -2617,12 +2617,12 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45916</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>56148</v>
+        <v>63822</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -2633,12 +2633,12 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45903</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>66449</v>
+        <v>64726</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -2649,12 +2649,12 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45894</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>68005</v>
+        <v>66161</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
@@ -2665,12 +2665,12 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45894</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>68934</v>
+        <v>68569</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
@@ -2681,12 +2681,12 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45918</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>71390</v>
+        <v>69791</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
@@ -2697,12 +2697,12 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45896</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>72517</v>
+        <v>69854</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
@@ -2713,12 +2713,12 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45910</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>72728</v>
+        <v>72111</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
@@ -2729,12 +2729,12 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45959</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>73964</v>
+        <v>72178</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -2745,12 +2745,12 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45946</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>74005</v>
+        <v>72179</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
@@ -2761,12 +2761,12 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>74925</v>
+        <v>73551</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -2777,12 +2777,12 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45911</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>75109</v>
+        <v>75138</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
@@ -2793,12 +2793,12 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45916</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>76059</v>
+        <v>75104</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -2809,12 +2809,12 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45937</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>76186</v>
+        <v>77646</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
@@ -2825,12 +2825,12 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45957</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>77129</v>
+        <v>77796</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
@@ -2841,12 +2841,12 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45897</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>77006</v>
+        <v>23119</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
@@ -2857,12 +2857,12 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45901</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>79051</v>
+        <v>31929</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
@@ -2873,12 +2873,12 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45897</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>79755</v>
+        <v>36122</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -2889,12 +2889,12 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45940</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>23480</v>
+        <v>37441</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -2905,12 +2905,12 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45917</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>36681</v>
+        <v>37442</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
@@ -2921,12 +2921,12 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45909</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>71411</v>
+        <v>45363</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -2937,12 +2937,12 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45931</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>75323</v>
+        <v>46351</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -2953,12 +2953,12 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45901</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>76340</v>
+        <v>50779</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -2969,12 +2969,12 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45904</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>76341</v>
+        <v>52803</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
@@ -2985,12 +2985,12 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45922</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>78511</v>
+        <v>64017</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -3001,12 +3001,12 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45916</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>79181</v>
+        <v>68894</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
@@ -3017,12 +3017,12 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45905</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>33040</v>
+        <v>68895</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -3033,12 +3033,12 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45919</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>36898</v>
+        <v>76366</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
@@ -3049,12 +3049,12 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>39173</v>
+        <v>77219</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
@@ -3065,12 +3065,12 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45939</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>39423</v>
+        <v>79358</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
@@ -3081,12 +3081,12 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45959</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>57406</v>
+        <v>79290</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -3097,12 +3097,12 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>68300</v>
+        <v>79359</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
@@ -3113,12 +3113,12 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>68303</v>
+        <v>80442</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
@@ -3129,12 +3129,12 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45908</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>69623</v>
+        <v>80443</v>
       </c>
       <c r="B169" t="n">
         <v>1</v>
@@ -3145,12 +3145,12 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>70857</v>
+        <v>15917</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
@@ -3161,12 +3161,12 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45947</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>73384</v>
+        <v>26711</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
@@ -3177,12 +3177,12 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>74803</v>
+        <v>28199</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
@@ -3193,12 +3193,12 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45925</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>74804</v>
+        <v>38630</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
@@ -3209,12 +3209,12 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45924</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>75674</v>
+        <v>42658</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
@@ -3225,12 +3225,12 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45965</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>76440</v>
+        <v>50043</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
@@ -3241,12 +3241,12 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45920</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>78177</v>
+        <v>52031</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -3257,12 +3257,12 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45899</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>79618</v>
+        <v>52517</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
@@ -3273,12 +3273,12 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45924</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>80586</v>
+        <v>67225</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
@@ -3289,12 +3289,12 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45894</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>14287</v>
+        <v>70682</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
@@ -3305,12 +3305,12 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45901</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>15925</v>
+        <v>70683</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
@@ -3321,12 +3321,12 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45918</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>21773</v>
+        <v>70685</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
@@ -3337,12 +3337,12 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45936</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>29995</v>
+        <v>76633</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -3353,12 +3353,12 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45912</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>30981</v>
+        <v>76582</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
@@ -3369,12 +3369,12 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45901</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>36013</v>
+        <v>76583</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
@@ -3385,12 +3385,12 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45896</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>36014</v>
+        <v>76665</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
@@ -3401,12 +3401,12 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45916</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>46893</v>
+        <v>80659</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
@@ -3417,12 +3417,12 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>46961</v>
+        <v>14732</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
@@ -3433,12 +3433,12 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45952</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>49116</v>
+        <v>29202</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
@@ -3449,12 +3449,12 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45909</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>49117</v>
+        <v>32477</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
@@ -3465,12 +3465,12 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45908</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>64726</v>
+        <v>36121</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
@@ -3481,12 +3481,12 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>66161</v>
+        <v>40569</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
@@ -3497,12 +3497,12 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45916</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>68569</v>
+        <v>54473</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -3513,12 +3513,12 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45931</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>69791</v>
+        <v>54474</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
@@ -3529,12 +3529,12 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45940</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>69854</v>
+        <v>55492</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -3545,12 +3545,12 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45922</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>72111</v>
+        <v>60607</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -3561,12 +3561,12 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45896</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>72178</v>
+        <v>72320</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -3577,12 +3577,12 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45937</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>72179</v>
+        <v>72640</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
@@ -3593,12 +3593,12 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45898</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>73551</v>
+        <v>74059</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
@@ -3609,12 +3609,12 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45905</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>77646</v>
+        <v>75112</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
@@ -3625,12 +3625,12 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45930</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>77796</v>
+        <v>75113</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
@@ -3641,12 +3641,12 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45916</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>12282</v>
+        <v>76949</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
@@ -3657,12 +3657,12 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>10777</v>
+        <v>78269</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
@@ -3673,12 +3673,12 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>10575</v>
+        <v>78270</v>
       </c>
       <c r="B203" t="n">
         <v>1</v>
@@ -3689,12 +3689,12 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45898</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>11043</v>
+        <v>78271</v>
       </c>
       <c r="B204" t="n">
         <v>1</v>
@@ -3705,12 +3705,12 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45903</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>47763</v>
+        <v>78272</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
@@ -3721,12 +3721,12 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45923</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>50037</v>
+        <v>79993</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>63822</v>
+        <v>80124</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
@@ -3753,12 +3753,12 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45938</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>66164</v>
+        <v>38077</v>
       </c>
       <c r="B208" t="n">
         <v>1</v>
@@ -3769,12 +3769,12 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45905</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>70323</v>
+        <v>43290</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
@@ -3785,12 +3785,12 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45944</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>70326</v>
+        <v>43291</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
@@ -3801,12 +3801,12 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45905</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>71394</v>
+        <v>49225</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
@@ -3817,12 +3817,12 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45898</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>71395</v>
+        <v>57564</v>
       </c>
       <c r="B212" t="n">
         <v>1</v>
@@ -3833,12 +3833,12 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45959</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>72515</v>
+        <v>58951</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
@@ -3849,12 +3849,12 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>73967</v>
+        <v>60155</v>
       </c>
       <c r="B214" t="n">
         <v>1</v>
@@ -3865,12 +3865,12 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45915</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>75138</v>
+        <v>64801</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
@@ -3881,12 +3881,12 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45933</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>75104</v>
+        <v>64802</v>
       </c>
       <c r="B216" t="n">
         <v>1</v>
@@ -3897,12 +3897,12 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45945</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>77009</v>
+        <v>67626</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
@@ -3913,12 +3913,12 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45910</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>77007</v>
+        <v>69766</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -3929,12 +3929,12 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45966</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>79047</v>
+        <v>73708</v>
       </c>
       <c r="B219" t="n">
         <v>1</v>
@@ -3945,12 +3945,12 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45904</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>79048</v>
+        <v>75782</v>
       </c>
       <c r="B220" t="n">
         <v>1</v>
@@ -3961,12 +3961,12 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45924</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>32477</v>
+        <v>76715</v>
       </c>
       <c r="B221" t="n">
         <v>1</v>
@@ -3977,12 +3977,12 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45918</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>40569</v>
+        <v>76950</v>
       </c>
       <c r="B222" t="n">
         <v>1</v>
@@ -3993,12 +3993,12 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45961</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>43290</v>
+        <v>79991</v>
       </c>
       <c r="B223" t="n">
         <v>1</v>
@@ -4009,12 +4009,12 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45902</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>43291</v>
+        <v>79992</v>
       </c>
       <c r="B224" t="n">
         <v>1</v>
@@ -4025,12 +4025,12 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45936</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>46351</v>
+        <v>56867</v>
       </c>
       <c r="B225" t="n">
         <v>1</v>
@@ -4041,12 +4041,12 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45933</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>50779</v>
+        <v>60734</v>
       </c>
       <c r="B226" t="n">
         <v>1</v>
@@ -4057,12 +4057,12 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45953</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>52803</v>
+        <v>60959</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
@@ -4073,12 +4073,12 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45910</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>60607</v>
+        <v>66450</v>
       </c>
       <c r="B228" t="n">
         <v>1</v>
@@ -4089,12 +4089,12 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45929</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>76366</v>
+        <v>71398</v>
       </c>
       <c r="B229" t="n">
         <v>1</v>
@@ -4105,12 +4105,12 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45915</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>77219</v>
+        <v>72975</v>
       </c>
       <c r="B230" t="n">
         <v>1</v>
@@ -4121,12 +4121,12 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45937</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>79358</v>
+        <v>74288</v>
       </c>
       <c r="B231" t="n">
         <v>1</v>
@@ -4137,12 +4137,12 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45954</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>79290</v>
+        <v>74290</v>
       </c>
       <c r="B232" t="n">
         <v>1</v>
@@ -4153,12 +4153,12 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>79359</v>
+        <v>75324</v>
       </c>
       <c r="B233" t="n">
         <v>1</v>
@@ -4169,12 +4169,12 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45894</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>80442</v>
+        <v>76226</v>
       </c>
       <c r="B234" t="n">
         <v>1</v>
@@ -4185,12 +4185,12 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45919</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>80443</v>
+        <v>76228</v>
       </c>
       <c r="B235" t="n">
         <v>1</v>
@@ -4201,12 +4201,12 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45923</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>14732</v>
+        <v>76301</v>
       </c>
       <c r="B236" t="n">
         <v>1</v>
@@ -4217,12 +4217,12 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45915</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>28199</v>
+        <v>77339</v>
       </c>
       <c r="B237" t="n">
         <v>1</v>
@@ -4233,12 +4233,12 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45953</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>29202</v>
+        <v>79177</v>
       </c>
       <c r="B238" t="n">
         <v>1</v>
@@ -4249,12 +4249,12 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>31929</v>
+        <v>79361</v>
       </c>
       <c r="B239" t="n">
         <v>1</v>
@@ -4265,12 +4265,12 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45896</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>38077</v>
+        <v>79363</v>
       </c>
       <c r="B240" t="n">
         <v>1</v>
@@ -4281,12 +4281,12 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45932</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>54473</v>
+        <v>80440</v>
       </c>
       <c r="B241" t="n">
         <v>1</v>
@@ -4297,12 +4297,12 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45915</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>54474</v>
+        <v>17275</v>
       </c>
       <c r="B242" t="n">
         <v>1</v>
@@ -4313,12 +4313,12 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45919</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>55492</v>
+        <v>29984</v>
       </c>
       <c r="B243" t="n">
         <v>1</v>
@@ -4329,12 +4329,12 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45910</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>67225</v>
+        <v>33651</v>
       </c>
       <c r="B244" t="n">
         <v>1</v>
@@ -4345,12 +4345,12 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45950</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>70682</v>
+        <v>33653</v>
       </c>
       <c r="B245" t="n">
         <v>1</v>
@@ -4361,12 +4361,12 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45925</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>70683</v>
+        <v>37581</v>
       </c>
       <c r="B246" t="n">
         <v>1</v>
@@ -4377,12 +4377,12 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45930</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>70685</v>
+        <v>40171</v>
       </c>
       <c r="B247" t="n">
         <v>1</v>
@@ -4393,12 +4393,12 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45932</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>76633</v>
+        <v>48859</v>
       </c>
       <c r="B248" t="n">
         <v>1</v>
@@ -4409,12 +4409,12 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45895</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>76582</v>
+        <v>53225</v>
       </c>
       <c r="B249" t="n">
         <v>1</v>
@@ -4425,12 +4425,12 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45933</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>76583</v>
+        <v>56147</v>
       </c>
       <c r="B250" t="n">
         <v>1</v>
@@ -4441,12 +4441,12 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45936</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>76665</v>
+        <v>57310</v>
       </c>
       <c r="B251" t="n">
         <v>1</v>
@@ -4457,12 +4457,12 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45967</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>78269</v>
+        <v>62122</v>
       </c>
       <c r="B252" t="n">
         <v>1</v>
@@ -4473,12 +4473,12 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>78270</v>
+        <v>68299</v>
       </c>
       <c r="B253" t="n">
         <v>1</v>
@@ -4489,12 +4489,12 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45924</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>78271</v>
+        <v>69619</v>
       </c>
       <c r="B254" t="n">
         <v>1</v>
@@ -4505,12 +4505,12 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45945</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>78272</v>
+        <v>70687</v>
       </c>
       <c r="B255" t="n">
         <v>1</v>
@@ -4521,12 +4521,12 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>80659</v>
+        <v>75494</v>
       </c>
       <c r="B256" t="n">
         <v>1</v>
@@ -4537,12 +4537,12 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45895</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>15917</v>
+        <v>76578</v>
       </c>
       <c r="B257" t="n">
         <v>1</v>
@@ -4553,12 +4553,12 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45953</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>26711</v>
+        <v>76714</v>
       </c>
       <c r="B258" t="n">
         <v>1</v>
@@ -4569,12 +4569,12 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45903</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>36121</v>
+        <v>78450</v>
       </c>
       <c r="B259" t="n">
         <v>1</v>
@@ -4585,12 +4585,12 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45916</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>45363</v>
+        <v>78452</v>
       </c>
       <c r="B260" t="n">
         <v>1</v>
@@ -4601,12 +4601,12 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45905</v>
+        <v>45943</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>49225</v>
+        <v>78509</v>
       </c>
       <c r="B261" t="n">
         <v>1</v>
@@ -4617,12 +4617,12 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45951</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>64017</v>
+        <v>78602</v>
       </c>
       <c r="B262" t="n">
         <v>1</v>
@@ -4633,12 +4633,12 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45899</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>64801</v>
+        <v>79545</v>
       </c>
       <c r="B263" t="n">
         <v>1</v>
@@ -4649,12 +4649,12 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45918</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>64802</v>
+        <v>79547</v>
       </c>
       <c r="B264" t="n">
         <v>1</v>
@@ -4665,12 +4665,12 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45912</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>67626</v>
+        <v>80588</v>
       </c>
       <c r="B265" t="n">
         <v>1</v>
@@ -4681,12 +4681,12 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45915</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>69766</v>
+        <v>80724</v>
       </c>
       <c r="B266" t="n">
         <v>1</v>
@@ -4697,12 +4697,12 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45958</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>73708</v>
+        <v>10073</v>
       </c>
       <c r="B267" t="n">
         <v>1</v>
@@ -4713,12 +4713,12 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45958</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>75112</v>
+        <v>24145</v>
       </c>
       <c r="B268" t="n">
         <v>1</v>
@@ -4729,12 +4729,12 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45915</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>75113</v>
+        <v>59180</v>
       </c>
       <c r="B269" t="n">
         <v>1</v>
@@ -4745,12 +4745,12 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>45909</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>75782</v>
+        <v>63819</v>
       </c>
       <c r="B270" t="n">
         <v>1</v>
@@ -4761,12 +4761,12 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>76715</v>
+        <v>66593</v>
       </c>
       <c r="B271" t="n">
         <v>1</v>
@@ -4777,12 +4777,12 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45911</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>76950</v>
+        <v>66775</v>
       </c>
       <c r="B272" t="n">
         <v>1</v>
@@ -4793,12 +4793,12 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45938</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>79993</v>
+        <v>68079</v>
       </c>
       <c r="B273" t="n">
         <v>1</v>
@@ -4809,12 +4809,12 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45911</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>80124</v>
+        <v>70355</v>
       </c>
       <c r="B274" t="n">
         <v>1</v>
@@ -4825,12 +4825,12 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45926</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>23119</v>
+        <v>72516</v>
       </c>
       <c r="B275" t="n">
         <v>1</v>
@@ -4841,12 +4841,12 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45950</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>36122</v>
+        <v>72641</v>
       </c>
       <c r="B276" t="n">
         <v>1</v>
@@ -4857,12 +4857,12 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45911</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>37441</v>
+        <v>73838</v>
       </c>
       <c r="B277" t="n">
         <v>1</v>
@@ -4873,12 +4873,12 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45951</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>37442</v>
+        <v>75935</v>
       </c>
       <c r="B278" t="n">
         <v>1</v>
@@ -4889,12 +4889,12 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45903</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>38630</v>
+        <v>76185</v>
       </c>
       <c r="B279" t="n">
         <v>1</v>
@@ -4905,12 +4905,12 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45904</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>42658</v>
+        <v>77005</v>
       </c>
       <c r="B280" t="n">
         <v>1</v>
@@ -4921,12 +4921,12 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45952</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>50043</v>
+        <v>78175</v>
       </c>
       <c r="B281" t="n">
         <v>1</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>52031</v>
+        <v>79050</v>
       </c>
       <c r="B282" t="n">
         <v>1</v>
@@ -4953,12 +4953,12 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45908</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>52517</v>
+        <v>79988</v>
       </c>
       <c r="B283" t="n">
         <v>1</v>
@@ -4969,12 +4969,12 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>45897</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>57564</v>
+        <v>80122</v>
       </c>
       <c r="B284" t="n">
         <v>1</v>
@@ -4985,12 +4985,12 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45897</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>58951</v>
+        <v>31422</v>
       </c>
       <c r="B285" t="n">
         <v>1</v>
@@ -5001,12 +5001,12 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45902</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>60155</v>
+        <v>40448</v>
       </c>
       <c r="B286" t="n">
         <v>1</v>
@@ -5017,12 +5017,12 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45895</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>68894</v>
+        <v>46957</v>
       </c>
       <c r="B287" t="n">
         <v>1</v>
@@ -5033,12 +5033,12 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45902</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>68895</v>
+        <v>53509</v>
       </c>
       <c r="B288" t="n">
         <v>1</v>
@@ -5049,12 +5049,12 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45905</v>
+        <v>45925</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>72320</v>
+        <v>53689</v>
       </c>
       <c r="B289" t="n">
         <v>1</v>
@@ -5065,12 +5065,12 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45896</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>72640</v>
+        <v>60132</v>
       </c>
       <c r="B290" t="n">
         <v>1</v>
@@ -5081,12 +5081,12 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>45931</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>74059</v>
+        <v>69744</v>
       </c>
       <c r="B291" t="n">
         <v>1</v>
@@ -5097,12 +5097,12 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45902</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>76949</v>
+        <v>74924</v>
       </c>
       <c r="B292" t="n">
         <v>1</v>
@@ -5113,12 +5113,12 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45911</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>79991</v>
+        <v>79752</v>
       </c>
       <c r="B293" t="n">
         <v>1</v>
@@ -5129,12 +5129,12 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45894</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>79992</v>
+        <v>79754</v>
       </c>
       <c r="B294" t="n">
         <v>1</v>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45926</v>
+        <v>45895</v>
       </c>
     </row>
   </sheetData>
